--- a/com.project.selenium/src/TestData/Book1.xlsx
+++ b/com.project.selenium/src/TestData/Book1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>username</t>
   </si>

--- a/com.project.selenium/src/TestData/Book1.xlsx
+++ b/com.project.selenium/src/TestData/Book1.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\com.project.selenium\src\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -381,7 +385,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
